--- a/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5406-Estudios-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6168</v>
+        <v>6281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004888659448315907</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01652774665776443</v>
+        <v>0.01683144151788416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>13892</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7563</v>
+        <v>6919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23880</v>
+        <v>23948</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02363617648579599</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01286845696217533</v>
+        <v>0.01177254879843947</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04062906411375403</v>
+        <v>0.04074513981383686</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>15717</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9090</v>
+        <v>8467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25201</v>
+        <v>25375</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01635541168238504</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009459275363965078</v>
+        <v>0.008811588607503128</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02622549159325203</v>
+        <v>0.02640620310986674</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>25555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16982</v>
+        <v>17478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34984</v>
+        <v>35860</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06847819545208861</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04550395032673582</v>
+        <v>0.04683543514977478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09374284059427149</v>
+        <v>0.09608947218907739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -836,19 +836,19 @@
         <v>25919</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17662</v>
+        <v>16769</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38712</v>
+        <v>37654</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04409865772009146</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03005078651786283</v>
+        <v>0.02853037468483569</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06586431275816222</v>
+        <v>0.06406453426899211</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -857,19 +857,19 @@
         <v>51474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39537</v>
+        <v>39373</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68664</v>
+        <v>65858</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05356666779778294</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04114392703539593</v>
+        <v>0.04097397043106941</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07145556930236004</v>
+        <v>0.06853469220473331</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>345809</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>335953</v>
+        <v>335304</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>355092</v>
+        <v>354321</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9266331450995955</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9002223642409311</v>
+        <v>0.8984841091236768</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9515078625162565</v>
+        <v>0.9494399222245582</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>538</v>
@@ -907,19 +907,19 @@
         <v>547938</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>534955</v>
+        <v>533199</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>559796</v>
+        <v>559393</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9322651657941126</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.910176375771212</v>
+        <v>0.9071884769707624</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9524402786030745</v>
+        <v>0.9517554834006069</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>907</v>
@@ -928,19 +928,19 @@
         <v>893747</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>873756</v>
+        <v>875919</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>907047</v>
+        <v>907535</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9300779205198321</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9092745553151853</v>
+        <v>0.9115254703115195</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9439182904480831</v>
+        <v>0.9444264329772398</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9364</v>
+        <v>8388</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0198804174569958</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1063071998428909</v>
+        <v>0.09523013623314464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7308</v>
+        <v>6953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03303041069079647</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1174710433412393</v>
+        <v>0.1117558247251024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1074,19 +1074,19 @@
         <v>3806</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10772</v>
+        <v>10742</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02532362597819161</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006072645807053281</v>
+        <v>0.0061882006300503</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0716714430028047</v>
+        <v>0.07147522864284661</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>2635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7278</v>
+        <v>7127</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0299117380354319</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009259328059299139</v>
+        <v>0.009407444962793526</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0826243243342258</v>
+        <v>0.08091464879112531</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5676</v>
+        <v>5005</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01806781192418755</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.091242659020616</v>
+        <v>0.08044432748561044</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1145,19 +1145,19 @@
         <v>3759</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8740</v>
+        <v>10877</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02500915303885349</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006397903532163979</v>
+        <v>0.00638132331885994</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0581547594399304</v>
+        <v>0.07237131242214669</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>83697</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76309</v>
+        <v>76916</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86394</v>
+        <v>86419</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9502078445075723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8663278946344221</v>
+        <v>0.8732251165482231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9808299351746059</v>
+        <v>0.9811078417502085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1195,19 +1195,19 @@
         <v>59033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53866</v>
+        <v>53743</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61297</v>
+        <v>61307</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.948901777385016</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8658421028305234</v>
+        <v>0.8638731050291147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9852874788215512</v>
+        <v>0.9854481358593065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -1216,19 +1216,19 @@
         <v>142730</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135004</v>
+        <v>134605</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146811</v>
+        <v>147034</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9496672209829549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8982567678075689</v>
+        <v>0.8956032679190152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9768171159684333</v>
+        <v>0.9783011039486565</v>
       </c>
     </row>
     <row r="11">
@@ -1536,19 +1536,19 @@
         <v>3576</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10515</v>
+        <v>10348</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007115938794852052</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001672548068622642</v>
+        <v>0.001699097427346487</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02092766777586608</v>
+        <v>0.02059363973757332</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1557,19 +1557,19 @@
         <v>15947</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9253</v>
+        <v>8915</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25432</v>
+        <v>25339</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02356093782705999</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01367027470410609</v>
+        <v>0.01317119300147788</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03757522222768977</v>
+        <v>0.0374369088795868</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1578,19 +1578,19 @@
         <v>19523</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11724</v>
+        <v>12169</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29659</v>
+        <v>32140</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01655424156978161</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009941506078180212</v>
+        <v>0.01031846404741399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02514907084578763</v>
+        <v>0.02725322071659373</v>
       </c>
     </row>
     <row r="17">
@@ -1607,19 +1607,19 @@
         <v>28190</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20189</v>
+        <v>20458</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38812</v>
+        <v>39847</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0561033340492853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0401794069442078</v>
+        <v>0.04071554252230635</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07724377689418244</v>
+        <v>0.07930196821584165</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1628,19 +1628,19 @@
         <v>27043</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18135</v>
+        <v>18609</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39317</v>
+        <v>39299</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03995466237658968</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02679323227797281</v>
+        <v>0.02749315154752066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05808946410527547</v>
+        <v>0.05806207022899591</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -1649,19 +1649,19 @@
         <v>55233</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41223</v>
+        <v>42359</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>71016</v>
+        <v>70845</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04683510287691984</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03495559452099491</v>
+        <v>0.03591868685787242</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0602180658163561</v>
+        <v>0.06007314849879552</v>
       </c>
     </row>
     <row r="18">
@@ -1678,19 +1678,19 @@
         <v>470700</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>458656</v>
+        <v>457728</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>479617</v>
+        <v>479103</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9367807271558627</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9128107819964044</v>
+        <v>0.9109640188758218</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9545263464192891</v>
+        <v>0.953502351776669</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>622</v>
@@ -1699,19 +1699,19 @@
         <v>633852</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>618507</v>
+        <v>617242</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>645376</v>
+        <v>645162</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9364843997963503</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9138128138687223</v>
+        <v>0.9119447086292392</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9535098999452636</v>
+        <v>0.9531949834858701</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1111</v>
@@ -1720,19 +1720,19 @@
         <v>1104552</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1086092</v>
+        <v>1087961</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1120524</v>
+        <v>1119725</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9366106555532986</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9209569670605064</v>
+        <v>0.9225414906257572</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9501540020787702</v>
+        <v>0.9494763924241172</v>
       </c>
     </row>
     <row r="19">
@@ -2063,19 +2063,19 @@
         <v>15847</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9575</v>
+        <v>9305</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27812</v>
+        <v>25472</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03823991882190122</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02310590905121725</v>
+        <v>0.0224554205142465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06711517152187935</v>
+        <v>0.06146702521346618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -2084,19 +2084,19 @@
         <v>28897</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18940</v>
+        <v>19931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41331</v>
+        <v>43746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04553949359317264</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02984811908501534</v>
+        <v>0.03140978692028169</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06513443343784314</v>
+        <v>0.06894119689161858</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -2105,19 +2105,19 @@
         <v>44743</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31365</v>
+        <v>33652</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60244</v>
+        <v>62754</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04265570565282018</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0299012600554001</v>
+        <v>0.0320820079746505</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05743356491715617</v>
+        <v>0.05982593143324059</v>
       </c>
     </row>
     <row r="5">
@@ -2134,19 +2134,19 @@
         <v>31708</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20237</v>
+        <v>21556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44779</v>
+        <v>44934</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07651676013923693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04883445852313908</v>
+        <v>0.05201689576773302</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.108058048650804</v>
+        <v>0.108432256290436</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -2155,19 +2155,19 @@
         <v>46835</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34290</v>
+        <v>34402</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61300</v>
+        <v>63417</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07380802428185859</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05403889253890078</v>
+        <v>0.05421596442972828</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09660447248486541</v>
+        <v>0.09994162211740855</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -2176,19 +2176,19 @@
         <v>78543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>61830</v>
+        <v>61437</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98689</v>
+        <v>98034</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07487814412361307</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05894519523943161</v>
+        <v>0.0585703674960872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09408438658027783</v>
+        <v>0.09345986128067842</v>
       </c>
     </row>
     <row r="6">
@@ -2205,19 +2205,19 @@
         <v>366843</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>352309</v>
+        <v>353684</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>380956</v>
+        <v>379891</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8852433210388618</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8501705113424887</v>
+        <v>0.8534884147559099</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9193002458414171</v>
+        <v>0.9167306754595395</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>527</v>
@@ -2226,19 +2226,19 @@
         <v>558814</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>540170</v>
+        <v>541003</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>575296</v>
+        <v>574898</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8806524821249687</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8512714935001379</v>
+        <v>0.8525834563918034</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9066268053283195</v>
+        <v>0.906000722367671</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>864</v>
@@ -2247,19 +2247,19 @@
         <v>925656</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>900945</v>
+        <v>901769</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>947450</v>
+        <v>946961</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8824661502235668</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8589079035659696</v>
+        <v>0.8596942303852917</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9032431721062494</v>
+        <v>0.9027771690637789</v>
       </c>
     </row>
     <row r="7">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5365</v>
+        <v>6044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00836066539988874</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04521305809443148</v>
+        <v>0.05093196873374852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -2393,19 +2393,19 @@
         <v>3416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9159</v>
+        <v>9513</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0169333130785138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0049077224768388</v>
+        <v>0.004950610507990549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04540108701278062</v>
+        <v>0.04715537706230918</v>
       </c>
     </row>
     <row r="9">
@@ -2422,19 +2422,19 @@
         <v>5450</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1128</v>
+        <v>1973</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14567</v>
+        <v>14447</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04593135960278961</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009508867467586895</v>
+        <v>0.01662913809942582</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1227569834888103</v>
+        <v>0.1217482034259779</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5978</v>
+        <v>6651</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01323591949503647</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07196523649391837</v>
+        <v>0.08005915792378465</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -2464,19 +2464,19 @@
         <v>6550</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15954</v>
+        <v>15321</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03246766406476206</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01050099859500586</v>
+        <v>0.0104732415839268</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07908323030993211</v>
+        <v>0.07594598383611657</v>
       </c>
     </row>
     <row r="10">
@@ -2493,19 +2493,19 @@
         <v>112222</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102166</v>
+        <v>103424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116545</v>
+        <v>116587</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9457079749973216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8609643140400808</v>
+        <v>0.8715619637569213</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9821333841122815</v>
+        <v>0.9824845571765951</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -2514,19 +2514,19 @@
         <v>79550</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73194</v>
+        <v>73028</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81986</v>
+        <v>81991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9575854689513089</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8810720533352894</v>
+        <v>0.8790684226276454</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9869050722549964</v>
+        <v>0.9869581738600594</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -2535,19 +2535,19 @@
         <v>191773</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182601</v>
+        <v>181931</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197387</v>
+        <v>197255</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9505990228567242</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9051339824613829</v>
+        <v>0.9018145467886403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9784287308062918</v>
+        <v>0.9777719705489921</v>
       </c>
     </row>
     <row r="11">
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5849</v>
+        <v>5786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02252260375132108</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1198099895343084</v>
+        <v>0.1185091255341594</v>
       </c>
     </row>
     <row r="14">
@@ -2762,7 +2762,7 @@
         <v>21146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15945</v>
+        <v>15417</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>22246</v>
@@ -2771,7 +2771,7 @@
         <v>0.9505723444543134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7167562715227499</v>
+        <v>0.6930418457387111</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>47721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42972</v>
+        <v>43035</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>48821</v>
@@ -2792,7 +2792,7 @@
         <v>0.9774773962486789</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8801900104656916</v>
+        <v>0.8814908744658403</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -2887,19 +2887,19 @@
         <v>16839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10318</v>
+        <v>9982</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28768</v>
+        <v>28577</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03008852188310793</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01843682097584751</v>
+        <v>0.01783689581927441</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0514048807776218</v>
+        <v>0.05106426260157142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -2908,19 +2908,19 @@
         <v>31321</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21445</v>
+        <v>21448</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45472</v>
+        <v>44738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04233317768381188</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02898471988100218</v>
+        <v>0.02898841391789755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06145951006178166</v>
+        <v>0.0604678979626873</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -2929,19 +2929,19 @@
         <v>48159</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35257</v>
+        <v>35614</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66135</v>
+        <v>63153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03705995536054509</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02713118370726818</v>
+        <v>0.02740601822802521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05089256673056117</v>
+        <v>0.04859751000552998</v>
       </c>
     </row>
     <row r="17">
@@ -2958,19 +2958,19 @@
         <v>37159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25479</v>
+        <v>25458</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52803</v>
+        <v>53171</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0663980413942242</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04552825736442501</v>
+        <v>0.04549022809065446</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09435240129601363</v>
+        <v>0.09501068454393155</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -2979,19 +2979,19 @@
         <v>49034</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36365</v>
+        <v>36708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64144</v>
+        <v>64726</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06627373501507064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.049150191364794</v>
+        <v>0.04961388736534645</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08669626008074718</v>
+        <v>0.08748369615837051</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -3000,19 +3000,19 @@
         <v>86192</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67634</v>
+        <v>68906</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104942</v>
+        <v>106453</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06632726817959123</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05204625847051152</v>
+        <v>0.05302455161335254</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08075589032591832</v>
+        <v>0.08191858377200693</v>
       </c>
     </row>
     <row r="18">
@@ -3029,19 +3029,19 @@
         <v>505640</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>487773</v>
+        <v>487365</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>519302</v>
+        <v>519776</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9035134367226678</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8715881168514787</v>
+        <v>0.8708596634090122</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9279264542289305</v>
+        <v>0.9287743438234454</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>618</v>
@@ -3050,19 +3050,19 @@
         <v>659511</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>641009</v>
+        <v>640497</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>675995</v>
+        <v>675624</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8913930873011174</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.866386330641654</v>
+        <v>0.8656940890651953</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.913673205845511</v>
+        <v>0.9131720548349925</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1076</v>
@@ -3071,19 +3071,19 @@
         <v>1165150</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1141705</v>
+        <v>1139884</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1189447</v>
+        <v>1188110</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8966127764598637</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8785710736533797</v>
+        <v>0.8771696235570782</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9153100695677145</v>
+        <v>0.9142810472549209</v>
       </c>
     </row>
     <row r="19">
@@ -3414,19 +3414,19 @@
         <v>5777</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2421</v>
+        <v>2430</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11384</v>
+        <v>12057</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01632341429884158</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006840055780967421</v>
+        <v>0.006865771786928299</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03216811166654351</v>
+        <v>0.03406745953256955</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3435,19 +3435,19 @@
         <v>11791</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6113</v>
+        <v>6047</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22693</v>
+        <v>22336</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0212547188699192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0110190228223153</v>
+        <v>0.01090033166874469</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04090575912151097</v>
+        <v>0.04026354276763544</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -3456,19 +3456,19 @@
         <v>17568</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10708</v>
+        <v>9874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28242</v>
+        <v>27872</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01933408939243155</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0117847169799338</v>
+        <v>0.01086621267829097</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03108128138233859</v>
+        <v>0.03067401958965726</v>
       </c>
     </row>
     <row r="5">
@@ -3485,19 +3485,19 @@
         <v>18201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11904</v>
+        <v>11607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28010</v>
+        <v>27095</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05142940032851644</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03363772892729978</v>
+        <v>0.03279696598189812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07914514010075059</v>
+        <v>0.07656222591582006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -3506,19 +3506,19 @@
         <v>34500</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22694</v>
+        <v>23475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49644</v>
+        <v>49592</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06218956979126969</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04090770432448407</v>
+        <v>0.04231671432736819</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08948758276068601</v>
+        <v>0.08939375133581068</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -3527,19 +3527,19 @@
         <v>52701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37915</v>
+        <v>38833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68561</v>
+        <v>70737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05799873177770725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04172633454516019</v>
+        <v>0.04273678617181465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07545261241246451</v>
+        <v>0.07784805728997136</v>
       </c>
     </row>
     <row r="6">
@@ -3556,19 +3556,19 @@
         <v>329923</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>319262</v>
+        <v>319424</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>337477</v>
+        <v>337618</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.932247185372642</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9021233909581511</v>
+        <v>0.9025809311366377</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9535908221290216</v>
+        <v>0.9539907855247206</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>435</v>
@@ -3577,19 +3577,19 @@
         <v>508466</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>491354</v>
+        <v>490681</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>522414</v>
+        <v>521082</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9165557113388111</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.885709978558576</v>
+        <v>0.8844968492661526</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9416994364791533</v>
+        <v>0.9392969289341532</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>794</v>
@@ -3598,19 +3598,19 @@
         <v>838389</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>820875</v>
+        <v>820405</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>854738</v>
+        <v>855143</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9226671788298612</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9033928575816846</v>
+        <v>0.9028750190643753</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9406602259742267</v>
+        <v>0.9411053406608426</v>
       </c>
     </row>
     <row r="7">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4204</v>
+        <v>5087</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.004344546605370757</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02183280078482004</v>
+        <v>0.02642218482771112</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10124</v>
+        <v>9184</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0111295391942316</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0538317600921267</v>
+        <v>0.04882935369169641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11193</v>
+        <v>11997</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007697306995302675</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02940869986005995</v>
+        <v>0.03152173057563076</v>
       </c>
     </row>
     <row r="9">
@@ -3786,19 +3786,19 @@
         <v>4671</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1199</v>
+        <v>1186</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13099</v>
+        <v>14215</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02483475107524469</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006376646722090392</v>
+        <v>0.006306240311068053</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06964886752204567</v>
+        <v>0.07558064677911407</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -3807,19 +3807,19 @@
         <v>4671</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13125</v>
+        <v>12655</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01227193229887952</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.00312962649395042</v>
+        <v>0.003124163500421359</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03448320511227988</v>
+        <v>0.03325029076812066</v>
       </c>
     </row>
     <row r="10">
@@ -3836,7 +3836,7 @@
         <v>191696</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>188328</v>
+        <v>187445</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>192532</v>
@@ -3845,7 +3845,7 @@
         <v>0.9956554533946292</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9781671992151799</v>
+        <v>0.9735778151722889</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -3857,19 +3857,19 @@
         <v>181310</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>172072</v>
+        <v>170632</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>186021</v>
+        <v>185956</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9640357097305237</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9149142425374357</v>
+        <v>0.9072612728927828</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9890850886108613</v>
+        <v>0.9887409382712583</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>349</v>
@@ -3878,19 +3878,19 @@
         <v>373006</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>363334</v>
+        <v>363772</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>378055</v>
+        <v>378484</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9800307607058178</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9546184517918573</v>
+        <v>0.9557711177636271</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9932983629927724</v>
+        <v>0.994425226939943</v>
       </c>
     </row>
     <row r="11">
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7075</v>
+        <v>8506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01817337009297725</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09346101156033794</v>
+        <v>0.1123636791526176</v>
       </c>
     </row>
     <row r="14">
@@ -4105,7 +4105,7 @@
         <v>32298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>33674</v>
@@ -4114,7 +4114,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4126,7 +4126,7 @@
         <v>74327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68628</v>
+        <v>67197</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>75703</v>
@@ -4135,7 +4135,7 @@
         <v>0.9818266299070227</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9065389884396623</v>
+        <v>0.8876363208473859</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -4230,19 +4230,19 @@
         <v>6613</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3221</v>
+        <v>3204</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13049</v>
+        <v>12439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01123834099058618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005473176629922471</v>
+        <v>0.005445256383347597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02217392460012014</v>
+        <v>0.02113882878715237</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4251,19 +4251,19 @@
         <v>13884</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7106</v>
+        <v>7261</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26317</v>
+        <v>24188</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01788060481019751</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00915066856895529</v>
+        <v>0.009350718340214493</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03389168621333229</v>
+        <v>0.03114933043695639</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -4272,19 +4272,19 @@
         <v>20498</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12478</v>
+        <v>11562</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32535</v>
+        <v>32405</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0150170024641119</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00914180674623169</v>
+        <v>0.008470226328040059</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02383559922953218</v>
+        <v>0.02374066849157195</v>
       </c>
     </row>
     <row r="17">
@@ -4301,19 +4301,19 @@
         <v>18201</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11032</v>
+        <v>11454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27074</v>
+        <v>27632</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03092963899518217</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01874654944058437</v>
+        <v>0.01946462539946181</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04600784434373281</v>
+        <v>0.04695611851054124</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -4322,19 +4322,19 @@
         <v>40547</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28329</v>
+        <v>28504</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57509</v>
+        <v>56622</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05221685102183117</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03648278672324008</v>
+        <v>0.03670868972661099</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07406082285741122</v>
+        <v>0.07291936745151972</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -4343,19 +4343,19 @@
         <v>58748</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44018</v>
+        <v>43946</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>76366</v>
+        <v>76391</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04303954160494914</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03224812366107625</v>
+        <v>0.03219562480256863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0559470805324552</v>
+        <v>0.0559650643643213</v>
       </c>
     </row>
     <row r="18">
@@ -4372,19 +4372,19 @@
         <v>563649</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>553497</v>
+        <v>553645</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>571716</v>
+        <v>571612</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9578320200142316</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9405812022172452</v>
+        <v>0.9408328617572365</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.971540972755518</v>
+        <v>0.971364338459508</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>613</v>
@@ -4393,19 +4393,19 @@
         <v>722074</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>702684</v>
+        <v>702948</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>736292</v>
+        <v>735656</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9299025441679714</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9049321929230341</v>
+        <v>0.905272329298515</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9482134022386357</v>
+        <v>0.9473943394346483</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1209</v>
@@ -4414,19 +4414,19 @@
         <v>1285723</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1264507</v>
+        <v>1266023</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1303276</v>
+        <v>1303367</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.941943455930939</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9264005239605819</v>
+        <v>0.9275108660950133</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.954803117110395</v>
+        <v>0.9548698280247373</v>
       </c>
     </row>
     <row r="19">
@@ -4757,19 +4757,19 @@
         <v>5840</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2929</v>
+        <v>2640</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10725</v>
+        <v>10219</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02013253689692288</v>
+        <v>0.02013253689692289</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01009762364601405</v>
+        <v>0.009101344424682255</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03697209507902073</v>
+        <v>0.03522600347015493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -4778,19 +4778,19 @@
         <v>24744</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17729</v>
+        <v>17695</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33122</v>
+        <v>32441</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04601317080238843</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03296897357991613</v>
+        <v>0.03290535810587843</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06159363490519643</v>
+        <v>0.06032616570370473</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -4799,19 +4799,19 @@
         <v>30584</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22844</v>
+        <v>23126</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39709</v>
+        <v>40797</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03694410660171521</v>
+        <v>0.0369441066017152</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.027594043618132</v>
+        <v>0.02793460663182813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04796670208833599</v>
+        <v>0.04928007075222052</v>
       </c>
     </row>
     <row r="5">
@@ -4828,19 +4828,19 @@
         <v>17326</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11228</v>
+        <v>11461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24212</v>
+        <v>25283</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05972581103345164</v>
+        <v>0.05972581103345166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03870378090546234</v>
+        <v>0.03950898121552739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08346153958046405</v>
+        <v>0.08715417351061236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -4849,19 +4849,19 @@
         <v>43247</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35455</v>
+        <v>35370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54290</v>
+        <v>52925</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08042036311900513</v>
+        <v>0.08042036311900512</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06593056927311525</v>
+        <v>0.06577384527856776</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1009569960368046</v>
+        <v>0.09841723151690149</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>114</v>
@@ -4870,19 +4870,19 @@
         <v>60573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49825</v>
+        <v>50798</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72210</v>
+        <v>72789</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07316860019257908</v>
+        <v>0.07316860019257906</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06018557793871794</v>
+        <v>0.06136152733883145</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08722538071871805</v>
+        <v>0.08792466129205222</v>
       </c>
     </row>
     <row r="6">
@@ -4899,19 +4899,19 @@
         <v>266928</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>258458</v>
+        <v>259187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>273042</v>
+        <v>274025</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9201416520696251</v>
+        <v>0.9201416520696254</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8909429733255133</v>
+        <v>0.8934542249517121</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9412173941759266</v>
+        <v>0.9446031266350022</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>886</v>
@@ -4920,19 +4920,19 @@
         <v>469766</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>457042</v>
+        <v>458027</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>479783</v>
+        <v>479000</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8735664660786063</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8499046589030709</v>
+        <v>0.8517359008095936</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8921930258946835</v>
+        <v>0.8907368511866097</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1276</v>
@@ -4941,19 +4941,19 @@
         <v>736696</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>721102</v>
+        <v>719788</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>749495</v>
+        <v>748460</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8898872932057057</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8710510921875707</v>
+        <v>0.8694636661633388</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9053484626818999</v>
+        <v>0.9040982686563099</v>
       </c>
     </row>
     <row r="7">
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2482</v>
+        <v>3659</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002011762717921647</v>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008185822215809409</v>
+        <v>0.01206944446269168</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -5066,19 +5066,19 @@
         <v>1733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4154</v>
+        <v>4383</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006251333694136906</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001667653803547289</v>
+        <v>0.001650428416370987</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01498634634877906</v>
+        <v>0.0158137586997411</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -5087,19 +5087,19 @@
         <v>2343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5395</v>
+        <v>5180</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.004036653023124982</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.00149554934664762</v>
+        <v>0.001458565982227552</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009296692402411969</v>
+        <v>0.008926117225693147</v>
       </c>
     </row>
     <row r="9">
@@ -5116,19 +5116,19 @@
         <v>4193</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1514</v>
+        <v>1448</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8577</v>
+        <v>8794</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01383109125349812</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004995051708263628</v>
+        <v>0.004777364443326305</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02829216561984226</v>
+        <v>0.02900808151295426</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -5137,19 +5137,19 @@
         <v>11109</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6817</v>
+        <v>6967</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16722</v>
+        <v>17059</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0400804541602895</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0245954443420991</v>
+        <v>0.02513592671329337</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0603280085857515</v>
+        <v>0.0615465790761948</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -5158,19 +5158,19 @@
         <v>15302</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10460</v>
+        <v>9948</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22535</v>
+        <v>22776</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02636822785668709</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01802332003220607</v>
+        <v>0.0171411031831761</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03883045520083577</v>
+        <v>0.03924655516515864</v>
       </c>
     </row>
     <row r="10">
@@ -5187,19 +5187,19 @@
         <v>298354</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>293912</v>
+        <v>293709</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>301200</v>
+        <v>301333</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9841571460285804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.96950445500945</v>
+        <v>0.9688340996963787</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9935439941695288</v>
+        <v>0.99398397886852</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>503</v>
@@ -5208,19 +5208,19 @@
         <v>264336</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>258457</v>
+        <v>258315</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>268879</v>
+        <v>268699</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9536682121455735</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9324582509459786</v>
+        <v>0.931945412107816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9700600046704176</v>
+        <v>0.9694094346709964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>921</v>
@@ -5229,19 +5229,19 @@
         <v>562690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>555122</v>
+        <v>554765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>568058</v>
+        <v>568462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9695951191201879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9565542450762375</v>
+        <v>0.9559397422453557</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9788448583800873</v>
+        <v>0.9795410723195451</v>
       </c>
     </row>
     <row r="11">
@@ -5380,19 +5380,19 @@
         <v>2186</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5673</v>
+        <v>6864</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01838488920992402</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005000309507431824</v>
+        <v>0.005099262671666254</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04772042422711074</v>
+        <v>0.05773913259054452</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01266935743357329</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04138379441458778</v>
+        <v>0.04128199621593702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -5422,19 +5422,19 @@
         <v>3235</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1058</v>
+        <v>1268</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7487</v>
+        <v>7527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01603745845703076</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005244432151891466</v>
+        <v>0.006283766792109101</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03711068333012069</v>
+        <v>0.03731206793747519</v>
       </c>
     </row>
     <row r="14">
@@ -5451,19 +5451,19 @@
         <v>116695</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>113208</v>
+        <v>112017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>118287</v>
+        <v>118275</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.981615110790076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9522795757728894</v>
+        <v>0.9422608674094565</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9949996904925681</v>
+        <v>0.9949007373283337</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>150</v>
@@ -5472,7 +5472,7 @@
         <v>81805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79426</v>
+        <v>79435</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>82855</v>
@@ -5481,7 +5481,7 @@
         <v>0.9873306425664266</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9586162055854124</v>
+        <v>0.9587180037840628</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5493,19 +5493,19 @@
         <v>198501</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194249</v>
+        <v>194209</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200678</v>
+        <v>200468</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9839625415429694</v>
+        <v>0.9839625415429692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9628893166698798</v>
+        <v>0.962687932062524</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9947555678481085</v>
+        <v>0.9937162332078908</v>
       </c>
     </row>
     <row r="15">
@@ -5597,19 +5597,19 @@
         <v>6450</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3253</v>
+        <v>3094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11059</v>
+        <v>10834</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.009057617843359605</v>
+        <v>0.009057617843359607</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004568513754572618</v>
+        <v>0.004345141625357905</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01552998886230467</v>
+        <v>0.01521361816511505</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -5618,19 +5618,19 @@
         <v>26477</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19699</v>
+        <v>19574</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>35625</v>
+        <v>34946</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02949090476519039</v>
+        <v>0.0294909047651904</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02194181736956497</v>
+        <v>0.02180195060265797</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0396803769072067</v>
+        <v>0.03892460537621839</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -5639,19 +5639,19 @@
         <v>32927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25022</v>
+        <v>23763</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42929</v>
+        <v>43160</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02045244761799559</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01554234002802278</v>
+        <v>0.01476035129840406</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02666498475392044</v>
+        <v>0.0268089418050933</v>
       </c>
     </row>
     <row r="17">
@@ -5668,19 +5668,19 @@
         <v>23705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17396</v>
+        <v>16981</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32428</v>
+        <v>31876</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03328699060525516</v>
+        <v>0.03328699060525517</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02442761889957207</v>
+        <v>0.02384490699194314</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04553693956366211</v>
+        <v>0.04476104862903315</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -5689,19 +5689,19 @@
         <v>55406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46706</v>
+        <v>46214</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67857</v>
+        <v>66693</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06171348743851381</v>
+        <v>0.0617134874385138</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05202368125855652</v>
+        <v>0.05147540374563546</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07558267375652197</v>
+        <v>0.07428594627124997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>146</v>
@@ -5710,19 +5710,19 @@
         <v>79111</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67387</v>
+        <v>67141</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93039</v>
+        <v>93585</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04913931498866811</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04185718013245286</v>
+        <v>0.04170462294492569</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05779067397156337</v>
+        <v>0.05813022776133357</v>
       </c>
     </row>
     <row r="18">
@@ -5739,19 +5739,19 @@
         <v>681979</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>672039</v>
+        <v>673326</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>689266</v>
+        <v>689612</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9576553915513852</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9436967779150433</v>
+        <v>0.9455043360935159</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9678873982807402</v>
+        <v>0.9683739037892062</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1539</v>
@@ -5760,19 +5760,19 @@
         <v>815908</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>801324</v>
+        <v>802586</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>827392</v>
+        <v>827596</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9087956077962959</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8925512151652856</v>
+        <v>0.8939576574922712</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9215870167149777</v>
+        <v>0.9218142167110234</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2512</v>
@@ -5781,19 +5781,19 @@
         <v>1497887</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1481547</v>
+        <v>1481134</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1511798</v>
+        <v>1512942</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9304082373933362</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9202587990313118</v>
+        <v>0.920002433473607</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.93904925080547</v>
+        <v>0.93975995488933</v>
       </c>
     </row>
     <row r="19">
